--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H2">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
         <v>0.247237</v>
@@ -570,16 +570,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>0.09508493277155555</v>
+        <v>0.04140002794544445</v>
       </c>
       <c r="R2">
-        <v>0.8557643949439999</v>
+        <v>0.3726002515090001</v>
       </c>
       <c r="S2">
-        <v>0.006118150215459879</v>
+        <v>0.003080064316741594</v>
       </c>
       <c r="T2">
-        <v>0.006118150215459879</v>
+        <v>0.003080064316741594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H3">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,16 +632,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q3">
-        <v>1.916440767829334</v>
+        <v>0.8344192821226668</v>
       </c>
       <c r="R3">
-        <v>17.247966910464</v>
+        <v>7.509773539104001</v>
       </c>
       <c r="S3">
-        <v>0.123311571611256</v>
+        <v>0.06207882418470605</v>
       </c>
       <c r="T3">
-        <v>0.123311571611256</v>
+        <v>0.06207882418470605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>1.682841</v>
       </c>
       <c r="I4">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J4">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
         <v>0.247237</v>
@@ -694,16 +694,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q4">
-        <v>0.04622895114633332</v>
+        <v>0.04622895114633333</v>
       </c>
       <c r="R4">
         <v>0.416060560317</v>
       </c>
       <c r="S4">
-        <v>0.002974558209931586</v>
+        <v>0.003439324799824917</v>
       </c>
       <c r="T4">
-        <v>0.002974558209931586</v>
+        <v>0.003439324799824918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1.682841</v>
       </c>
       <c r="I5">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J5">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -762,10 +762,10 @@
         <v>8.385717867552</v>
       </c>
       <c r="S5">
-        <v>0.05995234422145638</v>
+        <v>0.06931973413733847</v>
       </c>
       <c r="T5">
-        <v>0.05995234422145637</v>
+        <v>0.06931973413733847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H6">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I6">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J6">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N6">
         <v>0.247237</v>
@@ -818,16 +818,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q6">
-        <v>0.3162634551501111</v>
+        <v>0.2345181123012222</v>
       </c>
       <c r="R6">
-        <v>2.846371096351</v>
+        <v>2.110663010711</v>
       </c>
       <c r="S6">
-        <v>0.02034967339060446</v>
+        <v>0.01744759376202489</v>
       </c>
       <c r="T6">
-        <v>0.02034967339060446</v>
+        <v>0.01744759376202489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H7">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I7">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J7">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q7">
-        <v>6.374303069450666</v>
+        <v>4.726722290357334</v>
       </c>
       <c r="R7">
-        <v>57.368727625056</v>
+        <v>42.540500613216</v>
       </c>
       <c r="S7">
-        <v>0.410148512083006</v>
+        <v>0.351656976677928</v>
       </c>
       <c r="T7">
-        <v>0.410148512083006</v>
+        <v>0.3516569766779279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H8">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I8">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J8">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N8">
         <v>0.247237</v>
@@ -942,16 +942,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q8">
-        <v>0.01506357352366667</v>
+        <v>0.009512855636666666</v>
       </c>
       <c r="R8">
-        <v>0.135572161713</v>
+        <v>0.08561570073000001</v>
       </c>
       <c r="S8">
-        <v>0.0009692514146361869</v>
+        <v>0.000707733995624881</v>
       </c>
       <c r="T8">
-        <v>0.0009692514146361869</v>
+        <v>0.0007077339956248811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H9">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I9">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J9">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1004,16 +1004,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q9">
-        <v>0.303606949792</v>
+        <v>0.19173200032</v>
       </c>
       <c r="R9">
-        <v>2.732462548128</v>
+        <v>1.72558800288</v>
       </c>
       <c r="S9">
-        <v>0.01953530250421245</v>
+        <v>0.01426440806613277</v>
       </c>
       <c r="T9">
-        <v>0.01953530250421245</v>
+        <v>0.01426440806613277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H10">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I10">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J10">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N10">
         <v>0.247237</v>
@@ -1066,16 +1066,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q10">
-        <v>0.2620043561268888</v>
+        <v>0.3037104360075556</v>
       </c>
       <c r="R10">
-        <v>2.358039205142</v>
+        <v>2.733393924068</v>
       </c>
       <c r="S10">
-        <v>0.01685842289798285</v>
+        <v>0.02259533925439868</v>
       </c>
       <c r="T10">
-        <v>0.01685842289798285</v>
+        <v>0.02259533925439868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H11">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I11">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J11">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1128,16 +1128,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q11">
-        <v>5.280708675861333</v>
+        <v>6.121296447445334</v>
       </c>
       <c r="R11">
-        <v>47.52637808275199</v>
+        <v>55.091668027008</v>
       </c>
       <c r="S11">
-        <v>0.3397822134514543</v>
+        <v>0.4554100008052797</v>
       </c>
       <c r="T11">
-        <v>0.3397822134514542</v>
+        <v>0.4554100008052797</v>
       </c>
     </row>
   </sheetData>
